--- a/Results/Sentiwordnet/hasil_lex_AMBIENCE.xlsx
+++ b/Results/Sentiwordnet/hasil_lex_AMBIENCE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="296">
   <si>
     <t>id</t>
   </si>
@@ -88,7 +88,7 @@
     <t>1289424:4</t>
   </si>
   <si>
-    <t>1300636:4</t>
+    <t>1308557:1</t>
   </si>
   <si>
     <t>1335154:4</t>
@@ -112,9 +112,6 @@
     <t>1357554:4</t>
   </si>
   <si>
-    <t>1367358:3</t>
-  </si>
-  <si>
     <t>1380450:2</t>
   </si>
   <si>
@@ -124,9 +121,6 @@
     <t>1390357:2</t>
   </si>
   <si>
-    <t>1394712:0</t>
-  </si>
-  <si>
     <t>1394712:4</t>
   </si>
   <si>
@@ -184,9 +178,6 @@
     <t>1615322:4</t>
   </si>
   <si>
-    <t>1632445:3</t>
-  </si>
-  <si>
     <t>1655521:1</t>
   </si>
   <si>
@@ -196,9 +187,6 @@
     <t>1661043:4</t>
   </si>
   <si>
-    <t>1661757:2</t>
-  </si>
-  <si>
     <t>1706644:4</t>
   </si>
   <si>
@@ -223,6 +211,9 @@
     <t>445960:4</t>
   </si>
   <si>
+    <t>475298:3</t>
+  </si>
+  <si>
     <t>475512:2</t>
   </si>
   <si>
@@ -265,6 +256,9 @@
     <t>535171:1</t>
   </si>
   <si>
+    <t>541532:0</t>
+  </si>
+  <si>
     <t>561054:1</t>
   </si>
   <si>
@@ -346,12 +340,6 @@
     <t>Z#5:4</t>
   </si>
   <si>
-    <t>TM#5:4</t>
-  </si>
-  <si>
-    <t>TVU#6:5</t>
-  </si>
-  <si>
     <t>TFS#5:8</t>
   </si>
   <si>
@@ -421,7 +409,7 @@
     <t>the place's decor and hidden bathrooms made for a good laugh.</t>
   </si>
   <si>
-    <t>i highly recommend cafe st. bart's for their food, the ambience and wonderful service.</t>
+    <t>it's boring on the inside, and our sushi was pretty below average... the tuna was soggy and the other rolls had no flavor.</t>
   </si>
   <si>
     <t>i didn't complain, i liked the atmosphere so much.</t>
@@ -445,9 +433,6 @@
     <t>it's a nice place to relax and have conversation.</t>
   </si>
   <si>
-    <t>ambience is delightful, service impeccable.</t>
-  </si>
-  <si>
     <t>service was also horrible and the ambience is not that great.</t>
   </si>
   <si>
@@ -457,9 +442,6 @@
     <t>i like the ambience, it's very dark and original.</t>
   </si>
   <si>
-    <t>very affordable and excellent ambient!</t>
-  </si>
-  <si>
     <t>however, i think this place is a good hang out spot.</t>
   </si>
   <si>
@@ -517,9 +499,6 @@
     <t>the seats are uncomfortable if you are sitting against the wall on wooden benches.</t>
   </si>
   <si>
-    <t>the service is good and ambience is good for a date or group outing.</t>
-  </si>
-  <si>
     <t>i almost hesititate to write a review because the atmosphere was so great and i would hate for it too become to crowded.</t>
   </si>
   <si>
@@ -529,9 +508,6 @@
     <t>decor is charming.</t>
   </si>
   <si>
-    <t>the ambience was so fun, and the prices were great, on top of the fact that the food was really tasty.</t>
-  </si>
-  <si>
     <t>we ate out in the back patio, which is worth it as it's cool and the music is hear well there.</t>
   </si>
   <si>
@@ -556,6 +532,9 @@
     <t>this is a great place to take out-of-towners, and perfect for watching the sunset.</t>
   </si>
   <si>
+    <t>the location is perfect.</t>
+  </si>
+  <si>
     <t>well, this place is so ghetto its not even funny.</t>
   </si>
   <si>
@@ -598,6 +577,9 @@
     <t>not the typical nyc gimmick theme restaurant.</t>
   </si>
   <si>
+    <t>cozy romantic atomosphere with only around 15 tables at most.</t>
+  </si>
+  <si>
     <t>when you're sitting in their main dining room (which has a spectacular, hand-painted high ceiling) you'd never know there was a world outside.</t>
   </si>
   <si>
@@ -679,12 +661,6 @@
     <t>the atmosphere was pretty nice but had a bit lacking, which it tries to make up for with a crazy scheme of mirrors.</t>
   </si>
   <si>
-    <t>the only thing that strikes you is the decor?(not very pleasant).</t>
-  </si>
-  <si>
-    <t>the dj is awesome, i have been there for my birthday and a bunch of other times with friends and i keep going back.</t>
-  </si>
-  <si>
     <t>yes, the place is classy and beautiful, but they most certainly target the uber whealthy not the common joe that wants to go all out every once in a while.</t>
   </si>
   <si>
@@ -697,193 +673,220 @@
     <t>gorgeous place ideal for a romantic dinner</t>
   </si>
   <si>
-    <t>perfection</t>
-  </si>
-  <si>
-    <t>vent</t>
+    <t>excellent|excellent</t>
+  </si>
+  <si>
+    <t>sleek|sleek|un</t>
+  </si>
+  <si>
+    <t>nice|casual</t>
+  </si>
+  <si>
+    <t>||||||</t>
+  </si>
+  <si>
+    <t>parisian|parisian</t>
+  </si>
+  <si>
+    <t>tiny</t>
+  </si>
+  <si>
+    <t>lively</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>magnificent|magnificent</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>great|great|great|great</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>cozy</t>
+  </si>
+  <si>
+    <t>outdoor</t>
+  </si>
+  <si>
+    <t>great|vibrant</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>hidden|hidden</t>
+  </si>
+  <si>
+    <t>soggy</t>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t>good|good</t>
+  </si>
+  <si>
+    <t>noisy</t>
+  </si>
+  <si>
+    <t>lovely</t>
+  </si>
+  <si>
+    <t>simple|bustling</t>
+  </si>
+  <si>
+    <t>cozy|nice</t>
+  </si>
+  <si>
+    <t>nice|nice</t>
+  </si>
+  <si>
+    <t>cute</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>romantic</t>
+  </si>
+  <si>
+    <t>cool</t>
+  </si>
+  <si>
+    <t>pleasant</t>
+  </si>
+  <si>
+    <t>elegant</t>
+  </si>
+  <si>
+    <t>small|great</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>enjoyable|enjoyable</t>
+  </si>
+  <si>
+    <t>great|nice</t>
+  </si>
+  <si>
+    <t>special|special|special</t>
+  </si>
+  <si>
+    <t>japanese</t>
+  </si>
+  <si>
+    <t>nice|nice|nice</t>
+  </si>
+  <si>
+    <t>disappointing</t>
+  </si>
+  <si>
+    <t>uncomfortable|wooden|wooden</t>
+  </si>
+  <si>
+    <t>great|great</t>
+  </si>
+  <si>
+    <t>charming</t>
+  </si>
+  <si>
+    <t>cool|worth</t>
+  </si>
+  <si>
+    <t>back|personal|pleasant|back|personal</t>
+  </si>
+  <si>
+    <t>nice|loud</t>
+  </si>
+  <si>
+    <t>more</t>
+  </si>
+  <si>
+    <t>peaceful</t>
+  </si>
+  <si>
+    <t>beautiful</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>funny|funny|funny</t>
+  </si>
+  <si>
+    <t>quiet</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>delish|delish|delish|delish</t>
+  </si>
+  <si>
+    <t>good|reasonable</t>
+  </si>
+  <si>
+    <t>casual</t>
+  </si>
+  <si>
+    <t>typical|dim</t>
+  </si>
+  <si>
+    <t>little|interior</t>
+  </si>
+  <si>
+    <t>correct|excellent|excellent</t>
+  </si>
+  <si>
+    <t>confortable|perfecttheyre|confortable|perfecttheyre|great</t>
+  </si>
+  <si>
+    <t>typical</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>italian|italian|italian</t>
+  </si>
+  <si>
+    <t>attractive|attractive</t>
+  </si>
+  <si>
+    <t>outdoor|outdoor</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>trendy|fabulous|sohovillageupper|fabulous|sohovillageupper|fabulous</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
-    <t>top</t>
-  </si>
-  <si>
-    <t>miraculously</t>
-  </si>
-  <si>
-    <t>cozy</t>
-  </si>
-  <si>
-    <t>lively</t>
-  </si>
-  <si>
-    <t>excellent</t>
-  </si>
-  <si>
-    <t>magnificent</t>
-  </si>
-  <si>
-    <t>cramped</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>cool</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>wonderful</t>
-  </si>
-  <si>
-    <t>liked</t>
-  </si>
-  <si>
-    <t>quaint</t>
-  </si>
-  <si>
-    <t>noisy</t>
-  </si>
-  <si>
-    <t>lovely</t>
-  </si>
-  <si>
-    <t>efficiently</t>
-  </si>
-  <si>
-    <t>delightful</t>
-  </si>
-  <si>
-    <t>cute</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>romantic</t>
-  </si>
-  <si>
-    <t>pleasant</t>
-  </si>
-  <si>
-    <t>refreshing</t>
-  </si>
-  <si>
-    <t>crowded</t>
-  </si>
-  <si>
-    <t>fun</t>
-  </si>
-  <si>
-    <t>enjoyable</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>disappointing</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>charming</t>
-  </si>
-  <si>
-    <t>unattractive</t>
-  </si>
-  <si>
-    <t>peaceful</t>
-  </si>
-  <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>blasted</t>
-  </si>
-  <si>
-    <t>quiet</t>
-  </si>
-  <si>
-    <t>delightfully</t>
-  </si>
-  <si>
-    <t>reasonable</t>
-  </si>
-  <si>
-    <t>dim</t>
-  </si>
-  <si>
-    <t>gimmick</t>
-  </si>
-  <si>
-    <t>spectacular</t>
-  </si>
-  <si>
-    <t>italian</t>
-  </si>
-  <si>
-    <t>attractive</t>
-  </si>
-  <si>
-    <t>delight</t>
-  </si>
-  <si>
-    <t>comfortable</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>warm</t>
-  </si>
-  <si>
-    <t>makes</t>
+    <t>warm|warm</t>
   </si>
   <si>
     <t>clean</t>
   </si>
   <si>
-    <t>disgusting</t>
-  </si>
-  <si>
-    <t>sweet</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>captivated</t>
-  </si>
-  <si>
-    <t>relaxed</t>
-  </si>
-  <si>
-    <t>mazing</t>
-  </si>
-  <si>
-    <t>lacking</t>
-  </si>
-  <si>
-    <t>awesome</t>
+    <t>|||</t>
+  </si>
+  <si>
+    <t>nice|nice|crazy</t>
   </si>
   <si>
     <t>classy</t>
@@ -892,7 +895,7 @@
     <t>upscale</t>
   </si>
   <si>
-    <t>ideal</t>
+    <t>gorgeous</t>
   </si>
   <si>
     <t>positive</t>
@@ -1256,7 +1259,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F112"/>
+  <dimension ref="A1:F108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1287,16 +1290,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D2" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="E2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1307,13 +1310,13 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D3" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="E3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F3" t="s">
         <v>294</v>
@@ -1327,16 +1330,16 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D4" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="E4" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F4" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1347,16 +1350,16 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D5" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="E5" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F5" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1367,16 +1370,16 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D6" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="E6" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F6" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1387,16 +1390,16 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D7" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="E7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1407,16 +1410,16 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D8" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="E8" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F8" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1427,16 +1430,16 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D9" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="E9" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F9" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1447,16 +1450,16 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D10" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="E10" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F10" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1467,16 +1470,16 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D11" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E11" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F11" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1487,16 +1490,13 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>126</v>
-      </c>
-      <c r="D12" t="s">
-        <v>237</v>
+        <v>122</v>
       </c>
       <c r="E12" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F12" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1507,16 +1507,16 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D13" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E13" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F13" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1527,16 +1527,16 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D14" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="E14" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F14" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1547,16 +1547,16 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E15" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F15" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1567,16 +1567,13 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>130</v>
-      </c>
-      <c r="D16" t="s">
-        <v>240</v>
+        <v>126</v>
       </c>
       <c r="E16" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F16" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1587,16 +1584,16 @@
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D17" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="E17" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F17" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1607,16 +1604,16 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D18" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="E18" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F18" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1627,16 +1624,16 @@
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D19" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="E19" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F19" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1647,16 +1644,16 @@
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D20" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E20" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F20" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1667,16 +1664,16 @@
         <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D21" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="E21" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F21" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1687,16 +1684,16 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D22" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="E22" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F22" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1707,16 +1704,16 @@
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D23" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="E23" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F23" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1727,16 +1724,16 @@
         <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D24" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="E24" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F24" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1747,16 +1744,16 @@
         <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D25" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="E25" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F25" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1767,16 +1764,16 @@
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D26" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="E26" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F26" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1787,16 +1784,16 @@
         <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D27" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="E27" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F27" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1807,16 +1804,16 @@
         <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D28" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="E28" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F28" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1827,16 +1824,16 @@
         <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D29" t="s">
-        <v>250</v>
+        <v>226</v>
       </c>
       <c r="E29" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F29" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1847,16 +1844,16 @@
         <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D30" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="E30" t="s">
         <v>294</v>
       </c>
       <c r="F30" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1867,16 +1864,16 @@
         <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D31" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E31" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F31" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1887,16 +1884,16 @@
         <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D32" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="E32" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F32" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1907,16 +1904,16 @@
         <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D33" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="E33" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F33" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1927,16 +1924,16 @@
         <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D34" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="E34" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F34" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1947,16 +1944,16 @@
         <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D35" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="E35" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F35" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1967,16 +1964,16 @@
         <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D36" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="E36" t="s">
         <v>294</v>
       </c>
       <c r="F36" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1987,16 +1984,16 @@
         <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D37" t="s">
-        <v>229</v>
+        <v>249</v>
       </c>
       <c r="E37" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F37" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2007,16 +2004,16 @@
         <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D38" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="E38" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F38" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2027,16 +2024,16 @@
         <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D39" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E39" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F39" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2047,16 +2044,16 @@
         <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D40" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E40" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F40" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2067,16 +2064,13 @@
         <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>155</v>
-      </c>
-      <c r="D41" t="s">
-        <v>256</v>
+        <v>151</v>
       </c>
       <c r="E41" t="s">
         <v>294</v>
       </c>
       <c r="F41" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2087,16 +2081,16 @@
         <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D42" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E42" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F42" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2107,16 +2101,16 @@
         <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D43" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="E43" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F43" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2127,16 +2121,16 @@
         <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D44" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E44" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F44" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2147,13 +2141,16 @@
         <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>159</v>
+        <v>155</v>
+      </c>
+      <c r="D45" t="s">
+        <v>255</v>
       </c>
       <c r="E45" t="s">
         <v>294</v>
       </c>
       <c r="F45" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2164,16 +2161,16 @@
         <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D46" t="s">
-        <v>229</v>
+        <v>256</v>
       </c>
       <c r="E46" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F46" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2184,16 +2181,16 @@
         <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D47" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="E47" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F47" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2204,16 +2201,16 @@
         <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D48" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E48" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F48" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2224,16 +2221,16 @@
         <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D49" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E49" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F49" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2244,16 +2241,16 @@
         <v>53</v>
       </c>
       <c r="C50" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D50" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="E50" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F50" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2264,13 +2261,13 @@
         <v>54</v>
       </c>
       <c r="C51" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D51" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E51" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F51" t="s">
         <v>294</v>
@@ -2284,10 +2281,10 @@
         <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D52" t="s">
-        <v>262</v>
+        <v>226</v>
       </c>
       <c r="E52" t="s">
         <v>294</v>
@@ -2304,16 +2301,16 @@
         <v>56</v>
       </c>
       <c r="C53" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D53" t="s">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="E53" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F53" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2324,16 +2321,16 @@
         <v>57</v>
       </c>
       <c r="C54" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D54" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="E54" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F54" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2344,16 +2341,16 @@
         <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D55" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="E55" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F55" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2364,16 +2361,16 @@
         <v>59</v>
       </c>
       <c r="C56" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D56" t="s">
         <v>263</v>
       </c>
       <c r="E56" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F56" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2384,16 +2381,16 @@
         <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D57" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="E57" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F57" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2404,16 +2401,16 @@
         <v>61</v>
       </c>
       <c r="C58" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D58" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="E58" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F58" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2424,16 +2421,16 @@
         <v>62</v>
       </c>
       <c r="C59" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D59" t="s">
-        <v>229</v>
+        <v>266</v>
       </c>
       <c r="E59" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F59" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2444,16 +2441,16 @@
         <v>63</v>
       </c>
       <c r="C60" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D60" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="E60" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F60" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2464,16 +2461,16 @@
         <v>64</v>
       </c>
       <c r="C61" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D61" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="E61" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F61" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2484,10 +2481,10 @@
         <v>65</v>
       </c>
       <c r="C62" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D62" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="E62" t="s">
         <v>294</v>
@@ -2504,16 +2501,16 @@
         <v>66</v>
       </c>
       <c r="C63" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D63" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="E63" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F63" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2524,16 +2521,16 @@
         <v>67</v>
       </c>
       <c r="C64" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D64" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="E64" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F64" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2544,16 +2541,16 @@
         <v>68</v>
       </c>
       <c r="C65" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D65" t="s">
-        <v>238</v>
+        <v>270</v>
       </c>
       <c r="E65" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F65" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2564,16 +2561,16 @@
         <v>69</v>
       </c>
       <c r="C66" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D66" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="E66" t="s">
         <v>294</v>
       </c>
       <c r="F66" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2584,16 +2581,16 @@
         <v>70</v>
       </c>
       <c r="C67" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D67" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E67" t="s">
         <v>294</v>
       </c>
       <c r="F67" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2604,16 +2601,16 @@
         <v>71</v>
       </c>
       <c r="C68" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D68" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="E68" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F68" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2624,16 +2621,16 @@
         <v>72</v>
       </c>
       <c r="C69" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D69" t="s">
-        <v>269</v>
+        <v>226</v>
       </c>
       <c r="E69" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F69" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2644,16 +2641,16 @@
         <v>73</v>
       </c>
       <c r="C70" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D70" t="s">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="E70" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F70" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2664,16 +2661,16 @@
         <v>74</v>
       </c>
       <c r="C71" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D71" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="E71" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F71" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2684,16 +2681,16 @@
         <v>75</v>
       </c>
       <c r="C72" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D72" t="s">
-        <v>238</v>
+        <v>276</v>
       </c>
       <c r="E72" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F72" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2704,16 +2701,16 @@
         <v>76</v>
       </c>
       <c r="C73" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D73" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="E73" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F73" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2724,10 +2721,10 @@
         <v>77</v>
       </c>
       <c r="C74" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D74" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="E74" t="s">
         <v>294</v>
@@ -2744,16 +2741,16 @@
         <v>78</v>
       </c>
       <c r="C75" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D75" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="E75" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F75" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2764,16 +2761,16 @@
         <v>79</v>
       </c>
       <c r="C76" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D76" t="s">
-        <v>234</v>
+        <v>279</v>
       </c>
       <c r="E76" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F76" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2784,16 +2781,16 @@
         <v>80</v>
       </c>
       <c r="C77" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D77" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="E77" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F77" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2804,16 +2801,16 @@
         <v>81</v>
       </c>
       <c r="C78" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D78" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="E78" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F78" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2824,16 +2821,16 @@
         <v>82</v>
       </c>
       <c r="C79" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D79" t="s">
-        <v>272</v>
+        <v>238</v>
       </c>
       <c r="E79" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F79" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2844,16 +2841,16 @@
         <v>83</v>
       </c>
       <c r="C80" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D80" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="E80" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F80" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2864,16 +2861,16 @@
         <v>84</v>
       </c>
       <c r="C81" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D81" t="s">
-        <v>239</v>
+        <v>282</v>
       </c>
       <c r="E81" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F81" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2884,16 +2881,16 @@
         <v>85</v>
       </c>
       <c r="C82" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D82" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="E82" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F82" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2904,16 +2901,16 @@
         <v>86</v>
       </c>
       <c r="C83" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D83" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="E83" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F83" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2924,16 +2921,16 @@
         <v>87</v>
       </c>
       <c r="C84" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D84" t="s">
-        <v>276</v>
+        <v>237</v>
       </c>
       <c r="E84" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F84" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2944,16 +2941,16 @@
         <v>88</v>
       </c>
       <c r="C85" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D85" t="s">
-        <v>277</v>
+        <v>243</v>
       </c>
       <c r="E85" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F85" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2964,10 +2961,13 @@
         <v>89</v>
       </c>
       <c r="C86" t="s">
-        <v>200</v>
+        <v>196</v>
+      </c>
+      <c r="D86" t="s">
+        <v>285</v>
       </c>
       <c r="E86" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F86" t="s">
         <v>294</v>
@@ -2981,16 +2981,16 @@
         <v>90</v>
       </c>
       <c r="C87" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D87" t="s">
-        <v>229</v>
+        <v>286</v>
       </c>
       <c r="E87" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F87" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3001,16 +3001,16 @@
         <v>91</v>
       </c>
       <c r="C88" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D88" t="s">
-        <v>278</v>
+        <v>243</v>
       </c>
       <c r="E88" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F88" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3021,16 +3021,16 @@
         <v>92</v>
       </c>
       <c r="C89" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D89" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="E89" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F89" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3041,16 +3041,16 @@
         <v>93</v>
       </c>
       <c r="C90" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D90" t="s">
-        <v>229</v>
+        <v>287</v>
       </c>
       <c r="E90" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F90" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3061,16 +3061,13 @@
         <v>94</v>
       </c>
       <c r="C91" t="s">
-        <v>205</v>
-      </c>
-      <c r="D91" t="s">
-        <v>252</v>
+        <v>201</v>
       </c>
       <c r="E91" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F91" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3081,16 +3078,16 @@
         <v>95</v>
       </c>
       <c r="C92" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D92" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="E92" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F92" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3101,16 +3098,16 @@
         <v>96</v>
       </c>
       <c r="C93" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D93" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="E93" t="s">
         <v>294</v>
       </c>
       <c r="F93" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3121,16 +3118,16 @@
         <v>97</v>
       </c>
       <c r="C94" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D94" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="E94" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F94" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3141,13 +3138,13 @@
         <v>98</v>
       </c>
       <c r="C95" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D95" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="E95" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F95" t="s">
         <v>294</v>
@@ -3161,16 +3158,16 @@
         <v>99</v>
       </c>
       <c r="C96" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D96" t="s">
-        <v>229</v>
+        <v>267</v>
       </c>
       <c r="E96" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F96" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3181,16 +3178,16 @@
         <v>100</v>
       </c>
       <c r="C97" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D97" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="E97" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F97" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3201,16 +3198,16 @@
         <v>101</v>
       </c>
       <c r="C98" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D98" t="s">
-        <v>266</v>
+        <v>289</v>
       </c>
       <c r="E98" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F98" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3221,16 +3218,13 @@
         <v>102</v>
       </c>
       <c r="C99" t="s">
-        <v>213</v>
-      </c>
-      <c r="D99" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="E99" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F99" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3241,10 +3235,10 @@
         <v>103</v>
       </c>
       <c r="C100" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D100" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="E100" t="s">
         <v>294</v>
@@ -3261,16 +3255,13 @@
         <v>104</v>
       </c>
       <c r="C101" t="s">
-        <v>215</v>
-      </c>
-      <c r="D101" t="s">
-        <v>283</v>
+        <v>211</v>
       </c>
       <c r="E101" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F101" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3281,16 +3272,16 @@
         <v>105</v>
       </c>
       <c r="C102" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D102" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="E102" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F102" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3301,16 +3292,13 @@
         <v>106</v>
       </c>
       <c r="C103" t="s">
-        <v>217</v>
-      </c>
-      <c r="D103" t="s">
-        <v>285</v>
+        <v>213</v>
       </c>
       <c r="E103" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F103" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3321,16 +3309,16 @@
         <v>107</v>
       </c>
       <c r="C104" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D104" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="E104" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F104" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3341,10 +3329,10 @@
         <v>108</v>
       </c>
       <c r="C105" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D105" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="E105" t="s">
         <v>294</v>
@@ -3361,10 +3349,10 @@
         <v>109</v>
       </c>
       <c r="C106" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D106" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
       <c r="E106" t="s">
         <v>294</v>
@@ -3381,16 +3369,16 @@
         <v>110</v>
       </c>
       <c r="C107" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D107" t="s">
-        <v>254</v>
+        <v>292</v>
       </c>
       <c r="E107" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F107" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3401,96 +3389,16 @@
         <v>111</v>
       </c>
       <c r="C108" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D108" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="E108" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F108" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109" s="1">
-        <v>107</v>
-      </c>
-      <c r="B109" t="s">
-        <v>112</v>
-      </c>
-      <c r="C109" t="s">
-        <v>223</v>
-      </c>
-      <c r="D109" t="s">
-        <v>290</v>
-      </c>
-      <c r="E109" t="s">
-        <v>293</v>
-      </c>
-      <c r="F109" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="A110" s="1">
-        <v>108</v>
-      </c>
-      <c r="B110" t="s">
-        <v>113</v>
-      </c>
-      <c r="C110" t="s">
-        <v>224</v>
-      </c>
-      <c r="D110" t="s">
-        <v>266</v>
-      </c>
-      <c r="E110" t="s">
-        <v>293</v>
-      </c>
-      <c r="F110" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111" s="1">
-        <v>109</v>
-      </c>
-      <c r="B111" t="s">
-        <v>114</v>
-      </c>
-      <c r="C111" t="s">
-        <v>225</v>
-      </c>
-      <c r="D111" t="s">
-        <v>291</v>
-      </c>
-      <c r="E111" t="s">
-        <v>294</v>
-      </c>
-      <c r="F111" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
-      <c r="A112" s="1">
-        <v>110</v>
-      </c>
-      <c r="B112" t="s">
-        <v>115</v>
-      </c>
-      <c r="C112" t="s">
-        <v>226</v>
-      </c>
-      <c r="D112" t="s">
-        <v>292</v>
-      </c>
-      <c r="E112" t="s">
-        <v>293</v>
-      </c>
-      <c r="F112" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
